--- a/500all/speech_level/speeches_CHRG-114hhrg98486.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98486.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. The Subcommittee on Courts, Intellectual Property, and the Internet will come to order. Without objection, the Chair is authorized to declare a recess of the subcommittee at any time. We welcome everyone here today for a hearing on H.R. 1057, the ``Promoting Automotive Repair, Trade, and Sales Act of 2015,'' otherwise known as the PARTS Act. I will now recognize myself for an opening statement.    This afternoon's hearing is about an important piece of pro-consumer legislation, the PARTS Act. It is narrowly focused and designed to once and for all call, appropriately, attention to the use of ornamental patents for broader than their original purpose. For a great many years, patents, known as design patents, were clearly understood to be ornamental, meaning if someone were to duplicate the appearance of a patented product, they would be violating that look for a period of 14 years. Under the PARTS Act, this is a limited bill. It relates only to car parts that are typically replaced after collision, and it allows a limited exemption to the design patents so the aftermarket parts of like use, of form, fit, and quality can be available for basic repairs.    This does not mean that marginal or low quality parts are by definition to be considered as acceptable. In no way, shape, or form is this about the quality, as we all know, and we know too well, automobile companies around the world have made magnificent automobiles. They also made the Pinto, the Vega, the Yugo, the Lada, and I need not go on to tell you there have been cars that have been shoddy in their manufacturer, unreliable, and yes, I have visited the Corvair Museum. There are cars with other notability. But in this case, we are simply creating a balance between the rights of the manufacturer to produce an ornamental design and protect it for a period of 14 years from its competitors, people who would produce a similar automobile look. That is the intent of a design patent. It was never intended to be, in fact, a substitute for the ability to simply repair a portion of something you have purchased.    Now, let's understand the automobile industry is unique. They do create rolling pieces of art. Those rolling pieces of art should, in fact, enjoy their distinctive advantage. However, it is notable that it is very seldom does General Motors sue Toyota, Toyota sue Honda, or any of them sue Mercedes when they make cars that are so close together that even their commercials find it hard to find the automobile that matches. They make fun of how similar cars look and yet, you do not see automobile patent suits related to their design patents, meaning the auto companies do not consider there to be a great value to the design patents when they are looking at similar designs between automobile companies. Having said that, the very lucrative auto aftermarket business related to collision parts is an area in which the auto companies have attempted to establish greater and greater exclusivity. And I support that exclusivity, but for a limited period of time. The PARTS Act is intended, recognizing that an automobile exceeds $30,000, and one would spend three or four times that if you were to buy it in parts from the manufacturer that in fact, instead of pounding out a fender, welding or bondoing it, an affordable replacement in a competitive market is in the best interest of safety, and of course, the consumer.    Additionally, a healthy aftermarket means more affordable parts for everyone, and particularly in the case of small production, or out of date older automobiles, or automobiles that are no longer produced, such as the Saturn or the DeLorean, or for that matter, the 1965 Mustang. These parts, without the PARTS Act, if a healthy aftermarket industry does not exist, will not and are not typically made at an affordable price by the manufacturer. Manufacturers do not want to have a lifetime responsibility to keep a set of tooling to make a part. If they did, certainly they would be a desirable place for the classic car repair business. People in Europe already enjoy some of the considerations that are in the PARTS Act, and for a good reason. The consumer has an expectation that it is, and a reasonable expectation, that there will be a competitive market for repair parts for their automobile. There certainly is for brake pads. Why would there not be for a bent fender? I look forward to working with people on both sides of the aisle, and on both sides of this issue to ensure we make the kind of limited, narrow, and appropriate changes to the patent law to allow automobiles to be repaired, while in fact protecting the intellectual property of the auto manufacturer or any other original equipment producer now or in the future.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400289</t>
   </si>
   <si>
-    <t>Jerrold Nadler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nadler. Thank you, Mr. Chairman. Today, we consider H.R. 1057, the ``Promoting Automotive Repair, Trade, and Sales,'' or ``PARTS Act of 2015.'' This legislation introduced by Chairman Issa and the gentlewoman from California, Ms. Lofgren, would reduce the term of design patent protection for exterior automotive repair parts like fenders, side view mirrors, and headlights from 14 years to two and a half years. Supporters see it as a pro-consumer bill to foster much needed competition in the collision repair parts market. But opponents see it as an unfair exemption to established patent law at the expense of one industry, with potential safety implications. Each side makes compelling arguments, and I appreciate the opportunity to examine these issues in greater detail today.    According to supporters of the PARTS Act, thousands of consumers each year pay artificially inflated prices for car repairs because auto manufacturers control more than 70 percent of the market for repair parts. To make matters worse, they say, manufacturers have recently begun to enforce their design patents against generic parts makers, threatening to eliminate whatever competition currently exists for aftermarket parts. Without the PARTS Act, they argue, consumers could see already high prices soar even higher as the generic market shrinks and automakers seize a near monopoly on repair parts. These consumers see a market with little competition, and wonder why there is a thriving market for generic drugs, but not for generic taillights. According to some estimates, since generic auto parts can cost up to 50 percent less than brand name alternatives, consumers would pay over $1 billion a year more for repair parts if the independent market were to be eliminated altogether. And if repair parts cost more, insurance companies will be forced to raise their rates too, further hurting consumers.    The PARTS Act would provide automakers 30 months of design patent protection for aftermarket products, long enough, supporters argue, for automakers to receive a healthy return on investment, but not so long that it would stifle the competitive market for repair products that consumers deserve. And car companies would still retain a full 14 years of protection against other automakers that might seek to copy their designs on new cars, since the bill only applies to repair parts. But this begs the question why single out only one industry for weaker patent protection? Opponents of the PARTS Act believe it would set a dangerous precedent in intellectual property law. They fear a slippery slope in which more and more industries are carved out for special treatment under the patent system, leading to a system that is both incoherent and unfair. How should we draw the lines between which industries are deserving of full protection, full 14-year protection, and which are not? We may not always appreciate the aesthetic design of a car's component parts, but automakers invest significant resources to design every aspect of their products so that they stand out to potential buyers.    Opponents of the PARTS Act argue that it would be unfair to deprive these manufacturers of the full return on their investment. They also note that auto manufacturers employ nearly 30,000 people in the U.S. in design centers. We risk losing some of these jobs if we reduce the incentives for automakers to create the innovative designs. Opponents further warn that the bill could threaten the safety of unsuspecting consumers who purchase a generic repair part, which may be of lower quality than its brand name equivalent. If a generic bumper looks identical but provides insufficient protection in an accident, it is certainly no substitute. As we examine the PARTS Act, we should consider whether additional safeguards ought to be put into place to protect consumers from shoddy parts before encouraging a significantly larger market for such generic products. Today's hearing hopefully will help us to determine the answers to these and other important questions, as we examine the proper balance between respecting the rights of creators and ensuring that customers enter a safe, competitive marketplace. We have an excellent set of witnesses to help us sort through these issues, and I look forward to their testimony. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. All the big three.</t>
   </si>
   <si>
@@ -94,18 +85,12 @@
     <t xml:space="preserve">    Mr. Issa. Today, we have a distinguished panel before us, two witnesses for the bill, two witnesses who are skeptical, as the Ranking Member said. The witnesses' opening statements or written statements have been entered into the record in its entirety, and I ask please for you each to summarize in approximately 5 minutes. If you can stay within the time, it will allow us not only to get through your opening statements, but through a robust set of questions from this side of the dais, and still adjourn before our votes, which will come some time probably shortly after 5.    Before I introduce the witnesses, and pursuant to the Committee's rule, would all four of you please rise to take the oath? And please raise your right hands.    [Witnesses sworn.]    Please be seated. Let the record reflect that all witnesses answered in the affirmative. Our witnesses today include Mr. Jack Gillis, director of public affairs for Consumer Federation of America; Ms. Kelly Burris, intellectual property attorney and owner of Burris Law Firm, PLLC; Ms. Pat Felder, owner and founder of Felder's Collision Parts. And which city in Louisiana, ma'am?</t>
   </si>
   <si>
-    <t>Felder</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Felder. Baton Rouge.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Baton Rouge. I love to just say that. That is such a pretty, pretty city. And Mr. Dan Risley, president of the Automotive Service Association. Again, your entire written statements will be placed in the record, and Mr. Gillis, you are first up.</t>
   </si>
   <si>
-    <t>Gillis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gillis. Thank you very much.</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t xml:space="preserve">    Mr. Issa. Thank you. Ms. Burris?</t>
   </si>
   <si>
-    <t>Burris</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Burris. Good afternoon, Chairman Issa, Ranking Member Nadler, and distinguished Members of the Subcommittee. Thank you for the opportunity to be here today, and to share my views on another version of the PARTS Act, the PARTS Act of 2015, on none other than Groundhogs Day. I cannot be the only one that noticed that, right? So I have serious concerns with the legislation and the impact it would have in three primary areas. First of all is jobs, good, high paying, white-collar jobs. Second, as we have all been discussing, the safety, and the quality of the vehicles. And third, more important to me, is the impact it would have on our legal system, and more specifically, the degradation of our patent systems. So jobs, briefly, which was set forth in more detail in my written statement, in the United States, this is a hub for industrial designers in the United States for automotive vehicle design. You have 15 OEMs with 21 design centers in the United States, in Michigan, in Ohio, and in California. Those design centers employ roughly 30,000 industrial designers and there is to the tune of billions of dollars being spent in the United States on the look of that car, something that is eye pleasing to the consumers.    And so, this is a hub for industrial designers here in the United States. And in a time when we are pushing STEM education to our youth, I just find it odd that we are pushing students to go that direction, but yet devaluating what it is that an industrial designer produces as a result of their engineering efforts. So number two is the safety and quality, which we will I know talk about more. And one of the things I do not think we have really flushed out a lot is we are not looking at these parts in a vacuum. These parts, these exterior parts of the vehicle, are part of an overall system. And as the automotive manufacturers are putting collision avoidance technology into the vehicles, lane avoidance, lane detection, there are sensors all over the car. And are we looking at the interaction between those sensors and the exterior parts? And what if you replace a part that does not have the same quality standards, will it function the same with the rest of the system? And as we move toward autonomous vehicles, I think that situation gets a little more intense, so that is something I think we should have a conversation around. Third and more important to me as a patent attorney is, okay, so we carve out this exception for repair parts. What is next? I drop my smartphone on the floor. I have to get it repaired. It is too expensive. Do we go to Apple and Samsung and say, ``Hey, guys, guess what? We are going to take away your design patents, too'' because they have many more design patents, and I would love to look at a curve of what their design patents look like in that industry, especially after the Apple-Samsung case.    Secondly, I think the practical impact of the 30 months is really--amounts to much less than 30 months if any term whatsoever, because it is from the date of the offer for sale, and automotive manufacturers, any design patent applicant does not have that design patent in hand as soon as they go launch their product at an auto show, at a trade show, off to the trimmers. So by the time the consumer gets in the car and hits the road, I do not think you are going to see any patent term at all, so that 2-1/2 years does not--it is not 2-1/2 years from a practical standpoint. The language of the bill also talks about motor vehicles. It is not automobiles. We are talking about motorcycles, scooters, farm equipment. If you look at Caterpillar, Harley-Davidson, they own hundreds of design patents themselves, so this is reaching into other industries besides automotive. So that is another concern that I have. And I know that there has been discussions about this type of legislation being enacted in Australia and also in Europe, but I have not seen any facts to show what impact that is having in those countries. And I will also note that the deliberations in the European Union, they are talking about making sure that those parts are being marked and that there is compensation to the original design patent owner. So I will stop my remarks there, and I thank you for your time, and I look forward to our discussions today.</t>
   </si>
   <si>
@@ -139,9 +121,6 @@
     <t xml:space="preserve">    Mr. Issa. Thank you. Mr. Risley.</t>
   </si>
   <si>
-    <t>Risley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Risley. Good afternoon, Mr. Chairman, and Members of the Subcommittee. My name is Dan Risley.</t>
   </si>
   <si>
@@ -283,9 +262,6 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. And I do appreciate it, Chairman. It is always good to be with the Chairman. This Committee I think is really hitting on one of the biggest parts, but I will also not that the patents that just got admitted into by unanimous consent also were good for 14 years, so that is an aspect, which is good and which it needs to be. I think there are some aspects about this bill that are good. There are some aspects that need to be discussed, but there are also some very disturbing, you know, questions. Ms. Burris, you brought up some. Mr. Gillis, we are going to get to some. The heart of this, though, and I want to get back to this, and Ms. Burris, I will just start with you. If you take the premise of the bill as correct, okay, which I have no doubt the authors, you know, in looking at it and I think there are some ways that we can work together. I have some specific concerns about language in the bill, but I think there are some possibilities we can work on. The premise of the bill is, do consumers lack affordable options in the marketplace due in full to ornamental design patent protections? If you take the premise of the bill, that is what the premise of the bill basically is because we have heard about it already. It is money. Mr. Gillis just said that, so is that true?</t>
   </si>
   <si>
@@ -454,9 +430,6 @@
     <t>412379</t>
   </si>
   <si>
-    <t>Judy Chu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Chu. Thank you. Ms. Felder, I understand that there has been uptick in number of design patents that the auto industries have filed over the years. In addition, companies like Ford began filing infringement complaints at the International Trade Commission. The complaints were filed against aftermarket suppliers of collision repair parts for popular and iconic cars like the F-150 and the Mustang. What are the outcomes of these cases, and how have they affected the overall market? Is it more difficult to find aftermarket parts for these cars today compared to years past?</t>
   </si>
   <si>
@@ -503,9 +476,6 @@
   </si>
   <si>
     <t>412561</t>
-  </si>
-  <si>
-    <t>Hakeem S. Jeffries</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Jeffries. All right. Thank you, Mr. Chair, and let me just thank the witnesses for their presence here today. Ms. Burris, you are opposed to this legislation, correct?</t>
@@ -1225,11 +1195,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1251,11 +1219,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1275,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1303,11 +1267,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1327,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1355,11 +1315,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1379,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1407,11 +1363,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1433,11 +1387,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1457,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1485,11 +1435,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1509,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1537,11 +1483,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1561,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1589,11 +1531,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1613,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1641,11 +1579,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1665,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1693,11 +1627,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1717,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1745,11 +1675,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1769,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1797,11 +1723,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1821,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1849,11 +1771,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1873,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1901,11 +1819,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1925,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1951,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1977,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2003,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2029,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2055,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2081,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2107,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2133,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2159,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2185,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2211,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2237,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2263,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2289,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2315,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2341,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2367,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2393,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2419,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2445,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2471,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2497,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2523,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2549,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2575,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2601,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2627,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2653,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2679,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2705,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2731,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2757,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2783,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2809,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2835,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2861,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2887,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2913,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2939,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2965,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2993,11 +2827,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3017,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3043,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3069,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3095,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3121,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3147,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3173,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>88</v>
-      </c>
-      <c r="G77" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3199,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3225,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3251,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3277,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3303,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3329,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
-      </c>
-      <c r="G83" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3355,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3381,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
-      </c>
-      <c r="G85" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3407,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3433,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>88</v>
-      </c>
-      <c r="G87" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3459,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3485,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>88</v>
-      </c>
-      <c r="G89" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3511,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3537,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>88</v>
-      </c>
-      <c r="G91" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3563,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3589,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>88</v>
-      </c>
-      <c r="G93" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3615,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3641,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>88</v>
-      </c>
-      <c r="G95" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3667,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3693,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>88</v>
-      </c>
-      <c r="G97" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3721,11 +3499,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3745,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>88</v>
-      </c>
-      <c r="G99" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3773,11 +3547,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3797,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>88</v>
-      </c>
-      <c r="G101" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3825,11 +3595,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3849,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>88</v>
-      </c>
-      <c r="G103" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3875,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3903,11 +3667,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3927,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>88</v>
-      </c>
-      <c r="G106" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3955,11 +3715,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3979,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4007,11 +3763,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4031,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4059,11 +3811,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4083,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4111,11 +3859,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4135,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4163,11 +3907,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4187,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4213,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4239,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4265,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4291,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4317,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4343,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4369,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4395,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4421,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4447,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4475,11 +4195,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4499,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>145</v>
-      </c>
-      <c r="G128" t="s">
-        <v>146</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4525,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4551,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>145</v>
-      </c>
-      <c r="G130" t="s">
-        <v>146</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4577,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4603,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>145</v>
-      </c>
-      <c r="G132" t="s">
-        <v>146</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4629,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4655,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>145</v>
-      </c>
-      <c r="G134" t="s">
-        <v>146</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4681,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4707,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>145</v>
-      </c>
-      <c r="G136" t="s">
+        <v>137</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
         <v>146</v>
-      </c>
-      <c r="H136" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4735,11 +4435,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4759,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4785,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>145</v>
-      </c>
-      <c r="G139" t="s">
-        <v>146</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4811,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4837,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>145</v>
-      </c>
-      <c r="G141" t="s">
-        <v>146</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4865,11 +4555,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4889,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>162</v>
-      </c>
-      <c r="G143" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4915,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4941,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>162</v>
-      </c>
-      <c r="G145" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4967,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4993,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>162</v>
-      </c>
-      <c r="G147" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5019,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5045,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>162</v>
-      </c>
-      <c r="G149" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5071,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5097,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
+        <v>153</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
         <v>162</v>
-      </c>
-      <c r="G151" t="s">
-        <v>163</v>
-      </c>
-      <c r="H151" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5123,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5149,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>162</v>
-      </c>
-      <c r="G153" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5175,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5201,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G155" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5227,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5253,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>162</v>
-      </c>
-      <c r="G157" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5279,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5305,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>162</v>
-      </c>
-      <c r="G159" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5331,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5357,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>162</v>
-      </c>
-      <c r="G161" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5383,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5409,13 +5057,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>162</v>
-      </c>
-      <c r="G163" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5435,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5461,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>162</v>
-      </c>
-      <c r="G165" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5487,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5513,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>162</v>
-      </c>
-      <c r="G167" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5539,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5565,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>162</v>
-      </c>
-      <c r="G169" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5591,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5617,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>162</v>
-      </c>
-      <c r="G171" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5645,11 +5275,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5669,13 +5297,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5697,11 +5323,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5721,13 +5345,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5749,11 +5371,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5773,13 +5393,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5801,11 +5419,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5825,13 +5441,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5853,11 +5467,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5877,13 +5489,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5905,11 +5515,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5929,13 +5537,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5957,11 +5563,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5981,13 +5585,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6009,11 +5611,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6033,13 +5633,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6061,11 +5659,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6085,13 +5681,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6113,11 +5707,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6137,13 +5729,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6165,11 +5755,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6189,13 +5777,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6217,11 +5803,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6241,13 +5825,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6269,11 +5851,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6293,13 +5873,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6321,11 +5899,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6345,13 +5921,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6373,11 +5947,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6397,13 +5969,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>19</v>
-      </c>
-      <c r="G201" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6425,11 +5995,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6449,13 +6017,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6477,11 +6043,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6501,13 +6065,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>19</v>
-      </c>
-      <c r="G205" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6529,11 +6091,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6553,13 +6113,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>19</v>
-      </c>
-      <c r="G207" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6581,11 +6139,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6605,13 +6161,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>19</v>
-      </c>
-      <c r="G209" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6633,11 +6187,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6657,13 +6209,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>19</v>
-      </c>
-      <c r="G211" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6685,11 +6235,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6709,13 +6257,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>19</v>
-      </c>
-      <c r="G213" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6737,11 +6283,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6761,13 +6305,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>19</v>
-      </c>
-      <c r="G215" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6789,11 +6331,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6813,13 +6353,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>19</v>
-      </c>
-      <c r="G217" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6841,11 +6379,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>12</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6865,13 +6401,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>19</v>
-      </c>
-      <c r="G219" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6893,11 +6427,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>12</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6917,13 +6449,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>19</v>
-      </c>
-      <c r="G221" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6945,11 +6475,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>12</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6969,13 +6497,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>19</v>
-      </c>
-      <c r="G223" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6997,11 +6523,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>12</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7021,13 +6545,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>19</v>
-      </c>
-      <c r="G225" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7049,11 +6571,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7073,13 +6593,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>19</v>
-      </c>
-      <c r="G227" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7101,11 +6619,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>12</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7125,13 +6641,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
-      </c>
-      <c r="G229" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7153,11 +6667,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7177,13 +6689,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>19</v>
-      </c>
-      <c r="G231" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7205,11 +6715,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>12</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7229,13 +6737,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>19</v>
-      </c>
-      <c r="G233" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7257,11 +6763,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>12</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7281,13 +6785,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>19</v>
-      </c>
-      <c r="G235" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7309,11 +6811,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>12</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7333,13 +6833,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>19</v>
-      </c>
-      <c r="G237" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7361,11 +6859,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>12</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7385,13 +6881,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>19</v>
-      </c>
-      <c r="G239" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7413,11 +6907,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>12</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7437,13 +6929,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>19</v>
-      </c>
-      <c r="G241" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7465,11 +6955,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7489,13 +6977,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>19</v>
-      </c>
-      <c r="G243" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7517,11 +7003,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7541,13 +7025,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>19</v>
-      </c>
-      <c r="G245" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7569,11 +7051,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7593,13 +7073,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>19</v>
-      </c>
-      <c r="G247" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7621,11 +7099,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>12</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7645,13 +7121,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>19</v>
-      </c>
-      <c r="G249" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7673,11 +7147,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>12</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7697,13 +7169,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>19</v>
-      </c>
-      <c r="G251" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7725,11 +7195,9 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
-        <v>12</v>
-      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7749,13 +7217,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>19</v>
-      </c>
-      <c r="G253" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7777,11 +7243,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
